--- a/output/0/tRNA-Trp-CCA-3-1.xlsx
+++ b/output/0/tRNA-Trp-CCA-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>chr6</t>
   </si>
@@ -186,36 +186,6 @@
   </si>
   <si>
     <t>69</t>
-  </si>
-  <si>
-    <t>26319452</t>
-  </si>
-  <si>
-    <t>26319475</t>
-  </si>
-  <si>
-    <t>26319455</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAATAATAAAGAAATTGTTT</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>4% (15)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 38%, Moreno-Mateos: 4%</t>
   </si>
 </sst>
 </file>
@@ -260,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -620,65 +590,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
